--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.475141333333334</v>
+        <v>0.8901166666666667</v>
       </c>
       <c r="H2">
-        <v>7.425424</v>
+        <v>2.67035</v>
       </c>
       <c r="I2">
-        <v>0.004126344150637134</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="J2">
-        <v>0.004126344150637133</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.433022333333334</v>
+        <v>1.639301666666666</v>
       </c>
       <c r="N2">
-        <v>10.299067</v>
+        <v>4.917904999999999</v>
       </c>
       <c r="O2">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="P2">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="Q2">
-        <v>8.49721547548978</v>
+        <v>1.459169735194444</v>
       </c>
       <c r="R2">
-        <v>76.47493927940801</v>
+        <v>13.13252761675</v>
       </c>
       <c r="S2">
-        <v>0.001176676836960206</v>
+        <v>0.0002156898803370248</v>
       </c>
       <c r="T2">
-        <v>0.001176676836960206</v>
+        <v>0.0002156898803370249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.475141333333334</v>
+        <v>0.8901166666666667</v>
       </c>
       <c r="H3">
-        <v>7.425424</v>
+        <v>2.67035</v>
       </c>
       <c r="I3">
-        <v>0.004126344150637134</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="J3">
-        <v>0.004126344150637133</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>24.051464</v>
       </c>
       <c r="O3">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="P3">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="Q3">
-        <v>19.8435908911929</v>
+        <v>7.136202988044446</v>
       </c>
       <c r="R3">
-        <v>178.592318020736</v>
+        <v>64.22582689240001</v>
       </c>
       <c r="S3">
-        <v>0.002747899453783752</v>
+        <v>0.001054851078272204</v>
       </c>
       <c r="T3">
-        <v>0.002747899453783752</v>
+        <v>0.001054851078272204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.475141333333334</v>
+        <v>0.8901166666666667</v>
       </c>
       <c r="H4">
-        <v>7.425424</v>
+        <v>2.67035</v>
       </c>
       <c r="I4">
-        <v>0.004126344150637134</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="J4">
-        <v>0.004126344150637133</v>
+        <v>0.001454906651255627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5886693333333334</v>
+        <v>1.401229333333333</v>
       </c>
       <c r="N4">
-        <v>1.766008</v>
+        <v>4.203688</v>
       </c>
       <c r="O4">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="P4">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="Q4">
-        <v>1.457039798599111</v>
+        <v>1.247257583422222</v>
       </c>
       <c r="R4">
-        <v>13.113358187392</v>
+        <v>11.2253182508</v>
       </c>
       <c r="S4">
-        <v>0.0002017678598931748</v>
+        <v>0.0001843656926463987</v>
       </c>
       <c r="T4">
-        <v>0.0002017678598931748</v>
+        <v>0.0001843656926463987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1732.048005</v>
       </c>
       <c r="I5">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890257</v>
       </c>
       <c r="J5">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.433022333333334</v>
+        <v>1.639301666666666</v>
       </c>
       <c r="N5">
-        <v>10.299067</v>
+        <v>4.917904999999999</v>
       </c>
       <c r="O5">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="P5">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="Q5">
-        <v>1982.053161190149</v>
+        <v>946.4497271143915</v>
       </c>
       <c r="R5">
-        <v>17838.47845071134</v>
+        <v>8518.047544029525</v>
       </c>
       <c r="S5">
-        <v>0.2744706252446507</v>
+        <v>0.1399012215389116</v>
       </c>
       <c r="T5">
-        <v>0.2744706252446507</v>
+        <v>0.1399012215389116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1732.048005</v>
       </c>
       <c r="I6">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890257</v>
       </c>
       <c r="J6">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>24.051464</v>
       </c>
       <c r="O6">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="P6">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="Q6">
         <v>4628.698915392148</v>
@@ -818,10 +818,10 @@
         <v>41658.29023852933</v>
       </c>
       <c r="S6">
-        <v>0.6409726591864299</v>
+        <v>0.6841997137803918</v>
       </c>
       <c r="T6">
-        <v>0.6409726591864299</v>
+        <v>0.6841997137803919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1732.048005</v>
       </c>
       <c r="I7">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890257</v>
       </c>
       <c r="J7">
-        <v>0.9625074816003053</v>
+        <v>0.9436845966890258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5886693333333334</v>
+        <v>1.401229333333333</v>
       </c>
       <c r="N7">
-        <v>1.766008</v>
+        <v>4.203688</v>
       </c>
       <c r="O7">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="P7">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="Q7">
-        <v>339.8678481348933</v>
+        <v>808.9988237824932</v>
       </c>
       <c r="R7">
-        <v>3058.810633214041</v>
+        <v>7280.989414042439</v>
       </c>
       <c r="S7">
-        <v>0.04706419716922465</v>
+        <v>0.1195836613697223</v>
       </c>
       <c r="T7">
-        <v>0.04706419716922466</v>
+        <v>0.1195836613697223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.014326</v>
+        <v>33.563832</v>
       </c>
       <c r="H8">
-        <v>60.042978</v>
+        <v>100.691496</v>
       </c>
       <c r="I8">
-        <v>0.03336617424905757</v>
+        <v>0.05486049665971852</v>
       </c>
       <c r="J8">
-        <v>0.03336617424905756</v>
+        <v>0.05486049665971854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.433022333333334</v>
+        <v>1.639301666666666</v>
       </c>
       <c r="N8">
-        <v>10.299067</v>
+        <v>4.917904999999999</v>
       </c>
       <c r="O8">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="P8">
-        <v>0.2851620693776887</v>
+        <v>0.1482499788910018</v>
       </c>
       <c r="Q8">
-        <v>68.709628144614</v>
+        <v>55.02124573731999</v>
       </c>
       <c r="R8">
-        <v>618.3866533015261</v>
+        <v>495.1912116358799</v>
       </c>
       <c r="S8">
-        <v>0.009514767296077805</v>
+        <v>0.008133067471753144</v>
       </c>
       <c r="T8">
-        <v>0.009514767296077805</v>
+        <v>0.008133067471753148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.014326</v>
+        <v>33.563832</v>
       </c>
       <c r="H9">
-        <v>60.042978</v>
+        <v>100.691496</v>
       </c>
       <c r="I9">
-        <v>0.03336617424905757</v>
+        <v>0.05486049665971852</v>
       </c>
       <c r="J9">
-        <v>0.03336617424905756</v>
+        <v>0.05486049665971854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>24.051464</v>
       </c>
       <c r="O9">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="P9">
-        <v>0.6659404435181344</v>
+        <v>0.7250300748586421</v>
       </c>
       <c r="Q9">
-        <v>160.457947091088</v>
+        <v>269.086432350016</v>
       </c>
       <c r="R9">
-        <v>1444.121523819792</v>
+        <v>2421.777891150144</v>
       </c>
       <c r="S9">
-        <v>0.02221988487792076</v>
+        <v>0.03977550999997801</v>
       </c>
       <c r="T9">
-        <v>0.02221988487792075</v>
+        <v>0.03977550999997802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.014326</v>
+        <v>33.563832</v>
       </c>
       <c r="H10">
-        <v>60.042978</v>
+        <v>100.691496</v>
       </c>
       <c r="I10">
-        <v>0.03336617424905757</v>
+        <v>0.05486049665971852</v>
       </c>
       <c r="J10">
-        <v>0.03336617424905756</v>
+        <v>0.05486049665971854</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5886693333333334</v>
+        <v>1.401229333333333</v>
       </c>
       <c r="N10">
-        <v>1.766008</v>
+        <v>4.203688</v>
       </c>
       <c r="O10">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="P10">
-        <v>0.04889748710417684</v>
+        <v>0.1267199462503561</v>
       </c>
       <c r="Q10">
-        <v>11.781819943536</v>
+        <v>47.030625937472</v>
       </c>
       <c r="R10">
-        <v>106.036379491824</v>
+        <v>423.275633437248</v>
       </c>
       <c r="S10">
-        <v>0.00163152207505901</v>
+        <v>0.006951919187987371</v>
       </c>
       <c r="T10">
-        <v>0.00163152207505901</v>
+        <v>0.006951919187987375</v>
       </c>
     </row>
   </sheetData>
